--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.553094</v>
+        <v>0.065096</v>
       </c>
       <c r="H2">
-        <v>4.659282</v>
+        <v>0.195288</v>
       </c>
       <c r="I2">
-        <v>0.6859765954652609</v>
+        <v>0.02794828919627058</v>
       </c>
       <c r="J2">
-        <v>0.6859765954652609</v>
+        <v>0.02794828919627058</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,19 +561,19 @@
         <v>0.393072250513715</v>
       </c>
       <c r="P2">
-        <v>0.393072250513715</v>
+        <v>0.3930722505137151</v>
       </c>
       <c r="Q2">
-        <v>1.609929992628</v>
+        <v>0.06747820981866666</v>
       </c>
       <c r="R2">
-        <v>14.489369933652</v>
+        <v>0.607303888368</v>
       </c>
       <c r="S2">
-        <v>0.2696383641792664</v>
+        <v>0.01098569693238623</v>
       </c>
       <c r="T2">
-        <v>0.2696383641792664</v>
+        <v>0.01098569693238623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.553094</v>
+        <v>0.065096</v>
       </c>
       <c r="H3">
-        <v>4.659282</v>
+        <v>0.195288</v>
       </c>
       <c r="I3">
-        <v>0.6859765954652609</v>
+        <v>0.02794828919627058</v>
       </c>
       <c r="J3">
-        <v>0.6859765954652609</v>
+        <v>0.02794828919627058</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,19 +623,19 @@
         <v>0.6069277494862849</v>
       </c>
       <c r="P3">
-        <v>0.606927749486285</v>
+        <v>0.6069277494862849</v>
       </c>
       <c r="Q3">
-        <v>2.485831004298</v>
+        <v>0.104190509432</v>
       </c>
       <c r="R3">
-        <v>22.372479038682</v>
+        <v>0.9377145848879999</v>
       </c>
       <c r="S3">
-        <v>0.4163382312859945</v>
+        <v>0.01696259226388436</v>
       </c>
       <c r="T3">
-        <v>0.4163382312859946</v>
+        <v>0.01696259226388436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,13 +643,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -655,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7109686666666667</v>
+        <v>1.553094</v>
       </c>
       <c r="H4">
-        <v>2.132906</v>
+        <v>4.659282</v>
       </c>
       <c r="I4">
-        <v>0.314023404534739</v>
+        <v>0.6668047231933247</v>
       </c>
       <c r="J4">
-        <v>0.314023404534739</v>
+        <v>0.6668047231933247</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,19 +685,19 @@
         <v>0.393072250513715</v>
       </c>
       <c r="P4">
-        <v>0.393072250513715</v>
+        <v>0.3930722505137151</v>
       </c>
       <c r="Q4">
-        <v>0.7369868020128889</v>
+        <v>1.609929992628</v>
       </c>
       <c r="R4">
-        <v>6.632881218116</v>
+        <v>14.489369933652</v>
       </c>
       <c r="S4">
-        <v>0.1234338863344486</v>
+        <v>0.262102433198775</v>
       </c>
       <c r="T4">
-        <v>0.1234338863344486</v>
+        <v>0.262102433198775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -717,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7109686666666667</v>
+        <v>1.553094</v>
       </c>
       <c r="H5">
-        <v>2.132906</v>
+        <v>4.659282</v>
       </c>
       <c r="I5">
-        <v>0.314023404534739</v>
+        <v>0.6668047231933247</v>
       </c>
       <c r="J5">
-        <v>0.314023404534739</v>
+        <v>0.6668047231933247</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,19 +747,143 @@
         <v>0.6069277494862849</v>
       </c>
       <c r="P5">
-        <v>0.606927749486285</v>
+        <v>0.6069277494862849</v>
       </c>
       <c r="Q5">
+        <v>2.485831004298</v>
+      </c>
+      <c r="R5">
+        <v>22.372479038682</v>
+      </c>
+      <c r="S5">
+        <v>0.4047022899945498</v>
+      </c>
+      <c r="T5">
+        <v>0.4047022899945498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7109686666666667</v>
+      </c>
+      <c r="H6">
+        <v>2.132906</v>
+      </c>
+      <c r="I6">
+        <v>0.3052469876104046</v>
+      </c>
+      <c r="J6">
+        <v>0.3052469876104047</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>1.036595333333333</v>
+      </c>
+      <c r="N6">
+        <v>3.109786</v>
+      </c>
+      <c r="O6">
+        <v>0.393072250513715</v>
+      </c>
+      <c r="P6">
+        <v>0.3930722505137151</v>
+      </c>
+      <c r="Q6">
+        <v>0.7369868020128889</v>
+      </c>
+      <c r="R6">
+        <v>6.632881218116001</v>
+      </c>
+      <c r="S6">
+        <v>0.1199841203825538</v>
+      </c>
+      <c r="T6">
+        <v>0.1199841203825539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7109686666666667</v>
+      </c>
+      <c r="H7">
+        <v>2.132906</v>
+      </c>
+      <c r="I7">
+        <v>0.3052469876104046</v>
+      </c>
+      <c r="J7">
+        <v>0.3052469876104047</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.600567</v>
+      </c>
+      <c r="N7">
+        <v>4.801701</v>
+      </c>
+      <c r="O7">
+        <v>0.6069277494862849</v>
+      </c>
+      <c r="P7">
+        <v>0.6069277494862849</v>
+      </c>
+      <c r="Q7">
         <v>1.137952985900667</v>
       </c>
-      <c r="R5">
+      <c r="R7">
         <v>10.241576873106</v>
       </c>
-      <c r="S5">
-        <v>0.1905895182002904</v>
-      </c>
-      <c r="T5">
-        <v>0.1905895182002904</v>
+      <c r="S7">
+        <v>0.1852628672278508</v>
+      </c>
+      <c r="T7">
+        <v>0.1852628672278508</v>
       </c>
     </row>
   </sheetData>
